--- a/biology/Microbiologie/Chaetospira/Chaetospira.xlsx
+++ b/biology/Microbiologie/Chaetospira/Chaetospira.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chaetospiridae
-Chaetospira est un genre de Ciliés de la famille des Spirofilidae. Il est, selon GBIF       (22 janvier 2024)[1], l'unique représentant de la famille des Chaetospiridae, de l’ordre des Stichotrichida.
-Cependant, en 2022, Song et ses collaborateurs ont proposé d'ajouter le genre Stichotricha à la famille des Chaetospiridae[2].
+Chaetospira est un genre de Ciliés de la famille des Spirofilidae. Il est, selon GBIF       (22 janvier 2024), l'unique représentant de la famille des Chaetospiridae, de l’ordre des Stichotrichida.
+Cependant, en 2022, Song et ses collaborateurs ont proposé d'ajouter le genre Stichotricha à la famille des Chaetospiridae.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom Chaetospira est composé du préfixe chaet- « poil, soie », et du suffixe -spira, « spirale », en référence à la présence de « cellules membranaires en forme de ruban, aplati et torsadé en spirale »[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom Chaetospira est composé du préfixe chaet- « poil, soie », et du suffixe -spira, « spirale », en référence à la présence de « cellules membranaires en forme de ruban, aplati et torsadé en spirale ».
 </t>
         </is>
       </c>
@@ -544,15 +558,17 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D’après Kahl « l'extensibilité anormale de la partie antérieure du corps est la caractéristique déterminante du genre Chaetospira »[3].
-Cette partie antérieure, qui porte la zone adorale, est presque complètement invisible lorsqu'elle est contractée ou dépasse comme un doigt et peut être étirée pour former un support de cellules membranaires, qui prend la forme d'un ruban aplati et torsadé en spirale; ce ruban crée un puissant vortex de nourriture, qui est attrapée par la lèvre membraneuse, en forme de pelle, située au bord du péristome, puis est conduite dans le pharynx[3].
-Cet organisme vit dans un logement en forme de bouteille ou de tube, dans lequel il se retire lorsqu'il se contracte. Selon Kahl, il y a deux types d’individus : les uns avec des cils réduits (par exemple Chaetospira mülleri), les autres avec trois rangées complètes de cirres (par exemple Chaetospira entzi)[3].
-L'espèce type Chaetospira mülleri présente une loge exempte de cirres à l'exception d'un petit groupe à l'arrière. Trois rangées de stichotrices[note 1] rudimentaires derrière la bouche[3].
-La brosse dorsale haute et délicate est caractéristique, avec deux petits groupes de longs poils très délicats dirigés ventralement, à gauche et à droite de la bouche. Remarquable aussi est le déplacement de l'anus vers le côté gauche du « cou », à côté de la bouche. C'est un bon exemple de la convergence du développement avec les genres Folliculina (fam. Folliculinidae), Stentor (Stentoridae) ou Peritricha (Actinophryidae), résultant du mode de vie sédentaire[3].
-La coquille est pseudo-chitineuse, en forme de bouteille, et souvent recouverte de corps étrangers[3].
-Le noyau se présente en deux parties séparées. En outre cette espèce présente une ou deux vacuoles contractiles ; quand il y en a deux, l’une est à l'extrémité postérieure et l’autre devant la bouche dans la « gorge »[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D’après Kahl « l'extensibilité anormale de la partie antérieure du corps est la caractéristique déterminante du genre Chaetospira ».
+Cette partie antérieure, qui porte la zone adorale, est presque complètement invisible lorsqu'elle est contractée ou dépasse comme un doigt et peut être étirée pour former un support de cellules membranaires, qui prend la forme d'un ruban aplati et torsadé en spirale; ce ruban crée un puissant vortex de nourriture, qui est attrapée par la lèvre membraneuse, en forme de pelle, située au bord du péristome, puis est conduite dans le pharynx.
+Cet organisme vit dans un logement en forme de bouteille ou de tube, dans lequel il se retire lorsqu'il se contracte. Selon Kahl, il y a deux types d’individus : les uns avec des cils réduits (par exemple Chaetospira mülleri), les autres avec trois rangées complètes de cirres (par exemple Chaetospira entzi).
+L'espèce type Chaetospira mülleri présente une loge exempte de cirres à l'exception d'un petit groupe à l'arrière. Trois rangées de stichotrices[note 1] rudimentaires derrière la bouche.
+La brosse dorsale haute et délicate est caractéristique, avec deux petits groupes de longs poils très délicats dirigés ventralement, à gauche et à droite de la bouche. Remarquable aussi est le déplacement de l'anus vers le côté gauche du « cou », à côté de la bouche. C'est un bon exemple de la convergence du développement avec les genres Folliculina (fam. Folliculinidae), Stentor (Stentoridae) ou Peritricha (Actinophryidae), résultant du mode de vie sédentaire.
+La coquille est pseudo-chitineuse, en forme de bouteille, et souvent recouverte de corps étrangers.
+Le noyau se présente en deux parties séparées. En outre cette espèce présente une ou deux vacuoles contractiles ; quand il y en a deux, l’une est à l'extrémité postérieure et l’autre devant la bouche dans la « gorge ».
 </t>
         </is>
       </c>
@@ -581,9 +597,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces ciliés vivent en eau douce, dans des détritus en décomposition ou parmi des plantes aquatiques, notamment du genre Lemna (une des lentille d'eau)[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces ciliés vivent en eau douce, dans des détritus en décomposition ou parmi des plantes aquatiques, notamment du genre Lemna (une des lentille d'eau).
 </t>
         </is>
       </c>
@@ -612,12 +630,14 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon le World Register of Marine Species                               (23 octobre 2023)[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon le World Register of Marine Species                               (23 octobre 2023) :
 Chaetospira monilata Jones, 1974
 Chaetospira muelleri Lachmann, 1856
-Selon GBIF       (23 octobre 2023)[5] :
+Selon GBIF       (23 octobre 2023) :
 Chaetospira anguifrons Dumas, 1937
 Chaetospira congregata
 Chaetospira cornuta
@@ -632,7 +652,7 @@
 Chaetospira remex (Hudson, 1875) Kahl, 1932
 Chaetospira remex Huds.
 Chaetospira vaginicola Dumas, 1929
-En 2022, Song et ses collaborateurs ont décrit une nouvelle espèce Chaetospira sinica sp. nov[2].
+En 2022, Song et ses collaborateurs ont décrit une nouvelle espèce Chaetospira sinica sp. nov.
 </t>
         </is>
       </c>
@@ -661,11 +681,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre et son espèce type Chaetospira muelleri ont été décrits en 1856 par Johannes Lachmann (d) (1832-1860). La famille monogénérique des Chaetospiridae a été proposée  en 1985 par Anatoli Viktorovitch Jankowski (d) (1937-).
-En 2022, Song et ses collaborateurs ont proposé d'ajouter le genre Stichotricha à la famille des Chaetospiridae[2].
-D'autres auteurs classent les genres Chaetospira et Stichotricha dans la famille des Spirofilidae[6],[7].
+En 2022, Song et ses collaborateurs ont proposé d'ajouter le genre Stichotricha à la famille des Chaetospiridae.
+D'autres auteurs classent les genres Chaetospira et Stichotricha dans la famille des Spirofilidae,.
 </t>
         </is>
       </c>
